--- a/Documentacion/Cronograma_TFG.xlsx
+++ b/Documentacion/Cronograma_TFG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2BDDB3-7CF2-4368-9FCB-A76C95F08BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83EF91C-F9BF-48F4-8ED8-AF553883493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>RECOPILACIÓN DE DATOS</t>
   </si>
@@ -132,9 +132,6 @@
     <t>24-31</t>
   </si>
   <si>
-    <t>02-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contrucción de mapas predesarrollo </t>
   </si>
   <si>
@@ -148,6 +145,27 @@
   </si>
   <si>
     <t>Creación de mapas resultantes</t>
+  </si>
+  <si>
+    <t>Correción de errores</t>
+  </si>
+  <si>
+    <t>02-08</t>
+  </si>
+  <si>
+    <t>09-15</t>
+  </si>
+  <si>
+    <t>16-22</t>
+  </si>
+  <si>
+    <t>23-30</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>01-08</t>
   </si>
 </sst>
 </file>
@@ -214,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +317,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -451,19 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -520,21 +543,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -688,32 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -743,19 +725,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -779,8 +748,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -792,23 +761,137 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,7 +907,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -836,130 +919,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,445 +1377,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" customWidth="1"/>
-    <col min="3" max="19" width="4.77734375" customWidth="1"/>
+    <col min="3" max="18" width="4.77734375" customWidth="1"/>
+    <col min="19" max="21" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="63" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="68" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="63" t="s">
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="63" t="s">
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="39" t="s">
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="73" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+    </row>
+    <row r="4" spans="1:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="25"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="25"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="43"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="R4" s="75"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="36"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
       <c r="S5" s="43"/>
-    </row>
-    <row r="6" spans="1:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
-      <c r="B6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="43"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="44"/>
+    </row>
+    <row r="6" spans="1:28" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69"/>
+      <c r="B6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="95"/>
+    </row>
+    <row r="7" spans="1:28" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="20"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="21"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="70"/>
+      <c r="B8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="62"/>
-    </row>
-    <row r="9" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="34"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="70"/>
+      <c r="B9" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="85"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="41"/>
-    </row>
-    <row r="10" spans="1:20" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
-      <c r="B10" s="55" t="s">
+      <c r="R9" s="78"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="34"/>
+    </row>
+    <row r="10" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="69"/>
+      <c r="B10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="42"/>
-    </row>
-    <row r="11" spans="1:20" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="35"/>
+    </row>
+    <row r="11" spans="1:28" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="20"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="20"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="40"/>
-    </row>
-    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="54" t="s">
+      <c r="R11" s="76"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="44"/>
+    </row>
+    <row r="12" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="70"/>
+      <c r="B12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="21"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="41"/>
-    </row>
-    <row r="13" spans="1:20" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="93"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="34"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="70"/>
+      <c r="B13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="41"/>
-    </row>
-    <row r="14" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+      <c r="R13" s="78"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="34"/>
+    </row>
+    <row r="14" spans="1:28" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="70"/>
+      <c r="B14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="98"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="40"/>
-    </row>
-    <row r="15" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
-      <c r="B15" s="55" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="44"/>
+    </row>
+    <row r="16" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="69"/>
+      <c r="B16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="35"/>
+    </row>
+    <row r="17" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="44"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="96"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="S2:V2"/>
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
